--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_JERSEY_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_JERSEY_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1279"/>
+  <dimension ref="A1:D1273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C24">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C52">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C62">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1722,7 +1722,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C106">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C125">
@@ -2070,12 +2070,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C128">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C137">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C142">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C144">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C150">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C157">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C167">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C177">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C187">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C198">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C205">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C214">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C219">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C228">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C231">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C236">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C239">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C243">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C247">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C252">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C255">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C260">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C265">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C270">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C277">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C280">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C284">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C302">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C307">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C318">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C322">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C329">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C333">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C336">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C347">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C352">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C357">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C367">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C372">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C377">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C384">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C392">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C395">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C401">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C404">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C416">
@@ -6636,7 +6636,7 @@
         <v>130</v>
       </c>
       <c r="D476">
-        <v>0.009369369369369369</v>
+        <v>0.009369369369369367</v>
       </c>
     </row>
     <row r="477">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C481">
@@ -6733,7 +6733,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C484">
@@ -6811,7 +6811,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C490">
@@ -6837,7 +6837,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C492">
@@ -6928,7 +6928,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C499">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C512">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C515">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C523">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C526">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C537">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C547">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C549">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C551">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C553">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C560">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C562">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C576">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C601">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C609">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C619">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C651">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C667">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C689">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C711">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C714">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C719">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C733">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C808">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C812">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C818">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C824">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C827">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C829">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C831">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C856">
@@ -11693,7 +11693,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C864">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C875">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C876">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C891">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C892">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C896">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C897">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C900">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C910">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C911">
@@ -12460,7 +12460,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C923">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C932">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C946">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C950">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C951">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C957">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C965">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C966">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C971">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C973">
@@ -13123,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C974">
@@ -13188,7 +13188,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C979">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C990">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C995">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1013">
@@ -13661,7 +13661,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1015">
@@ -13687,7 +13687,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1017">
@@ -13700,7 +13700,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1018">
@@ -13726,7 +13726,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1020">
@@ -13752,7 +13752,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1022">
@@ -13853,7 +13853,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1029">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1039">
@@ -14035,7 +14035,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1043">
@@ -14336,7 +14336,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1065">
@@ -14536,7 +14536,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1080">
@@ -14606,7 +14606,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1085">
@@ -14632,7 +14632,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1087">
@@ -14645,7 +14645,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1088">
@@ -14710,7 +14710,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1093">
@@ -14801,7 +14801,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1100">
@@ -14827,7 +14827,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1102">
@@ -14840,7 +14840,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1103">
@@ -14879,7 +14879,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1106">
@@ -14918,7 +14918,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1109">
@@ -15009,7 +15009,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1116">
@@ -15048,7 +15048,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1119">
@@ -15204,7 +15204,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1131">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1140">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1145">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1159">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1170">
@@ -15729,7 +15729,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1171">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1172">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1176">
@@ -15807,7 +15807,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1177">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1178">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1186">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1189">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1192">
@@ -16015,7 +16015,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1193">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1201">
@@ -16158,7 +16158,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1204">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1205">
@@ -16327,7 +16327,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1217">
@@ -16691,7 +16691,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1245">
@@ -16769,7 +16769,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1251">
@@ -16782,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1252">
@@ -16935,7 +16935,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1263">
@@ -17073,41 +17073,6 @@
       </c>
       <c r="D1273">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
